--- a/RE-Framework_RPA07_티켓랭킹_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA07_티켓랭킹_박채연/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RE-Framework_RPA07_티켓랭킹_박채연\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA07_티켓랭킹_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3086B747-FC5A-4C2A-8F81-5D468CD7B9DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9154BE1C-9507-4192-BAC6-B4FBDC9A44E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -157,34 +157,7 @@
     <t>접속사이트 URL입력</t>
   </si>
   <si>
-    <t>수입관리시스템Url</t>
-  </si>
-  <si>
-    <t>처리대상Data추출</t>
-  </si>
-  <si>
-    <t>수입관리시스템Id</t>
-  </si>
-  <si>
-    <t>수입관리시스템Pw</t>
-  </si>
-  <si>
-    <t>ErpUrl</t>
-  </si>
-  <si>
-    <t>원장 전기</t>
-  </si>
-  <si>
-    <t>ErpId</t>
-  </si>
-  <si>
-    <t>ErpPw</t>
-  </si>
-  <si>
     <t>Folder</t>
-  </si>
-  <si>
-    <t>현업이 작성하는 다운로드 기편정보 시트가 위치하는 폴더. (20.다운로드대상)</t>
   </si>
   <si>
     <t>C:\RPA_Repository\ExPath\RPA00_Temp</t>
@@ -197,18 +170,7 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>기준정보SheetId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>CSS 기준정보(현업 작성)</t>
-  </si>
-  <si>
-    <t>다운로드SheetId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>다운로드 할 기편이 작성된 시트(현업 작성)</t>
   </si>
   <si>
     <t>GWSMail</t>
@@ -218,21 +180,362 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Gsuite_OAuthClientID</t>
-  </si>
-  <si>
-    <t>GWS OAuthClientID</t>
+    <t>CCTo</t>
+  </si>
+  <si>
+    <t>MailBody_NoData</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;nbsp;RPA_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;Link : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/span&gt;&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>{0}=날짜
+{1}=과제명 dicConfig("과제명").ToString
+{2}=기준정보시트 &amp; 다운로드대상시트 &amp; 20.다운로드대상폴더
+{3}=기준정보시트ID &amp; 다운로드대상시트ID &amp; 20.다운로드대상폴더ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Gsuite_OAuthClientSecret</t>
-  </si>
-  <si>
-    <t>GWS OAuthClientSecret</t>
+    <t>File</t>
+  </si>
+  <si>
+    <t>결과양식명</t>
+  </si>
+  <si>
+    <t>GooglespreadKeywordId</t>
+  </si>
+  <si>
+    <t>GWS spreadsheet ID</t>
+  </si>
+  <si>
+    <t>SearchListSheetId</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>CCTo</t>
+    <t>시스템 검색 기준정보 시트Id &amp; 시트명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchListSheetName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스탬검색기준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA결과_FormSheetId</t>
+  </si>
+  <si>
+    <t>RPA결과시트 양식 Id &amp; 시트명</t>
+  </si>
+  <si>
+    <t>RPA결과_FormSheetName</t>
+  </si>
+  <si>
+    <t>RPA처리결과</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutMedium</t>
+  </si>
+  <si>
+    <t>Timeout medium value in milliseconds. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutLong</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayShort</t>
+  </si>
+  <si>
+    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayMedium</t>
+  </si>
+  <si>
+    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayLong</t>
+  </si>
+  <si>
+    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
+  </si>
+  <si>
+    <t>AccuracyLow</t>
+  </si>
+  <si>
+    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyMedium</t>
+  </si>
+  <si>
+    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyHigh</t>
+  </si>
+  <si>
+    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
+  </si>
+  <si>
+    <t>Processing Transaction Number :</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data</t>
+  </si>
+  <si>
+    <t>Error getting transaction data for Transaction Number:</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception</t>
+  </si>
+  <si>
+    <t>Cint(dicConfig("TimeShort"))</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailBody</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Subject</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MailTo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0} = yyMMddhhss</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0}=부서코드
+{1}=과제명 dicConfig("과제명").ToString
+{2}= 성공입니다. &amp; 실패입니다. &amp; 처리할 Data가 없습니다.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[RPA_{0}] {1} 처리 결과 : {2}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RE-Framework RPA07 티켓랭킹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤️❤️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RE-Framework RPA07 티켓랭킹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤️❤️</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>티켓랭킹_Temp.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RPA07_티켓랭킹.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>템플릿양식명</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://ticket.yes24.com/New/Rank/Ranking.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>데이터 추출 웹사이트</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Temp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SheetId</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\ExPath\</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data\Output\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Input\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0}=날짜
+{1}=과제명 dicConfig("과제명").ToString
+{2}=결과시트 링크
+{3}=intTotalCnt
+{4}=intSuccessCnt
+{5}=intFailCnt
+{6}=strMemo
+{7}=추가할 테이블</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -408,360 +711,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;/tr&gt;</t>
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;br&gt;&lt;br&gt;
+{7}</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{0}=날짜
-{1}=과제명 dicConfig("과제명").ToString
-{2}=결과시트 링크
-{3}=intTotalCnt
-{4}=intSuccessCnt
-{5}=intFailCnt
-{6}=strMemo</t>
-  </si>
-  <si>
-    <t>MailBody_NoData</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;RPA_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;Link : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>{0}=날짜
-{1}=과제명 dicConfig("과제명").ToString
-{2}=기준정보시트 &amp; 다운로드대상시트 &amp; 20.다운로드대상폴더
-{3}=기준정보시트ID &amp; 다운로드대상시트ID &amp; 20.다운로드대상폴더ID</t>
+    <t>rpa.sj.jeong@gmail.com</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>템플릿양식명</t>
-  </si>
-  <si>
-    <t>결과양식명</t>
-  </si>
-  <si>
-    <t>GooglespreadKeywordId</t>
-  </si>
-  <si>
-    <t>GWS spreadsheet ID</t>
-  </si>
-  <si>
-    <t>SearchListSheetId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 검색 기준정보 시트Id &amp; 시트명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SearchListSheetName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스탬검색기준</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA결과_FormSheetId</t>
-  </si>
-  <si>
-    <t>RPA결과시트 양식 Id &amp; 시트명</t>
-  </si>
-  <si>
-    <t>RPA결과_FormSheetName</t>
-  </si>
-  <si>
-    <t>RPA처리결과</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutShort</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutMedium</t>
-  </si>
-  <si>
-    <t>Timeout medium value in milliseconds. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutLong</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayShort</t>
-  </si>
-  <si>
-    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayMedium</t>
-  </si>
-  <si>
-    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayLong</t>
-  </si>
-  <si>
-    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
-  </si>
-  <si>
-    <t>AccuracyLow</t>
-  </si>
-  <si>
-    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyMedium</t>
-  </si>
-  <si>
-    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyHigh</t>
-  </si>
-  <si>
-    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
-  </si>
-  <si>
-    <t>Processing Transaction Number :</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data</t>
-  </si>
-  <si>
-    <t>Error getting transaction data for Transaction Number:</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception</t>
-  </si>
-  <si>
-    <t>Cint(dicConfig("TimeShort"))</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailBody</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Subject</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MailTo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0} = yyMMddhhss</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0}=부서코드
-{1}=과제명 dicConfig("과제명").ToString
-{2}= 성공입니다. &amp; 실패입니다. &amp; 처리할 Data가 없습니다.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[RPA_{0}] {1} 처리 결과 : {2}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mangoperry2015@gmail.com</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RE-Framework_RPA07_티켓랭킹_박채연\ExPath\</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RE-Framework_RPA07_티켓랭킹_박채연\1.요청\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>요청</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>작업</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>결과</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RE-Framework_RPA07_티켓랭킹_박채연\2.작업\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RE-Framework_RPA07_티켓랭킹_박채연\3.결과\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RE-Framework RPA07 티켓랭킹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>❤️❤️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RE-Framework RPA07 티켓랭킹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>❤️❤️</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RE-Framework_RPA07_티켓랭킹_박채연\1.요청\티켓랭킹_Temp.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RE-Framework_RPA07_티켓랭킹_박채연\2.작업\RPA07_티켓랭킹.xlsx</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -819,14 +785,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -869,19 +827,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Segoe UI Emoji"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,18 +858,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -963,17 +907,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -983,9 +916,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1009,19 +942,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,10 +951,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,61 +969,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1419,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
@@ -1471,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -1480,7 +1386,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1489,17 +1395,17 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1516,322 +1422,249 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="38"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="11" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="40" t="s">
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="11" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="41"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="42"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>125</v>
+        <v>96</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" ht="40.5">
       <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.5">
+      <c r="A19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="67.5">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="30"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="4" t="s">
+      <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5">
-      <c r="A26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:3" ht="40.5">
-      <c r="A27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="409.5">
-      <c r="A28" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="67.5">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="C28" s="30"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27">
       <c r="A32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="36"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="36"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="27">
-      <c r="A41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
+  <mergeCells count="8">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,293 +1682,293 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="37.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="124.7109375" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5">
+      <c r="A4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="20">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="20">
+        <v>30000</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="20">
+        <v>120000</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="20">
+        <v>60000</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5">
-      <c r="A4" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="C19" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="20">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20">
+        <v>2</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="25.5">
+      <c r="A27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="26">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="26">
-        <v>30000</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="26">
-        <v>120000</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="26">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="26">
-        <v>15000</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="26">
-        <v>60000</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="26">
-        <v>2</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.5">
-      <c r="A27" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31"/>
@@ -2165,7 +1998,7 @@
     <row r="36" spans="1:3">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C36"/>
     </row>

--- a/RE-Framework_RPA07_티켓랭킹_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA07_티켓랭킹_박채연/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA07_티켓랭킹_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9154BE1C-9507-4192-BAC6-B4FBDC9A44E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C5C7F6-7129-4DCC-B082-BF3F25649A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>rpa.sj.jeong@gmail.com</t>
+    <t>mangoperry2015@gmail.com</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -999,6 +999,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1008,7 +1009,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1402,10 +1402,10 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1422,10 +1422,10 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1442,10 +1442,10 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:26">
@@ -1478,10 +1478,10 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:26">
@@ -1496,10 +1496,10 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="10" t="s">
         <v>49</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="A16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="4"/>
@@ -1554,10 +1554,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
@@ -1594,7 +1594,7 @@
         <v>58</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1605,14 +1605,14 @@
       <c r="B26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="30" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="15"/>
